--- a/mySystem/mySystem/xls/cleancut/6 SOP-MFG-302-R06A 清洁分切日报表.xlsx
+++ b/mySystem/mySystem/xls/cleancut/6 SOP-MFG-302-R06A 清洁分切日报表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>SOP-MFG-302-R04A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -646,6 +646,22 @@
   </si>
   <si>
     <t>SOP-MFG-302-R06A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁前合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作人/日期：                年   月   日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复核人/日期：                    年   月   日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +669,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -744,6 +760,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -919,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -963,9 +986,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1005,51 +1025,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1089,31 +1067,70 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,34 +1473,34 @@
       </c>
     </row>
     <row r="2" spans="1:11" s="6" customFormat="1" ht="42.2" customHeight="1">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" s="7" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52" t="s">
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
       <c r="J3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1640,36 +1657,36 @@
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
-    <row r="13" spans="1:11" s="23" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A13" s="54" t="s">
+    <row r="13" spans="1:11" s="22" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A13" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="21" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="56" t="s">
+      <c r="F13" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="21" t="s">
+      <c r="G13" s="42"/>
+      <c r="H13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I13" s="22" t="s">
+      <c r="I13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="20" t="s">
+      <c r="K13" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="23" customFormat="1" ht="28.5" customHeight="1">
+    <row r="14" spans="1:11" s="22" customFormat="1" ht="28.5" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
@@ -1679,35 +1696,35 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="21" t="s">
+      <c r="I14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K14" s="20" t="s">
+      <c r="K14" s="19" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="23" customFormat="1" ht="30" customHeight="1">
-      <c r="A15" s="46" t="s">
+    <row r="15" spans="1:11" s="22" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="48" t="s">
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="50"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1730,23 +1747,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="24.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="23" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="23" customWidth="1"/>
-    <col min="3" max="3" width="10.125" style="23" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="23" customWidth="1"/>
-    <col min="5" max="7" width="8.625" style="23" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="23" customWidth="1"/>
-    <col min="9" max="11" width="8.625" style="23" customWidth="1"/>
-    <col min="12" max="12" width="9.75" style="23" customWidth="1"/>
-    <col min="13" max="13" width="9.25" style="23" customWidth="1"/>
-    <col min="14" max="14" width="10.375" style="23" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="23"/>
+    <col min="1" max="1" width="3.875" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="22" customWidth="1"/>
+    <col min="3" max="3" width="15.125" style="22" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="22" customWidth="1"/>
+    <col min="5" max="7" width="8.625" style="22" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="22" customWidth="1"/>
+    <col min="9" max="11" width="8.625" style="22" customWidth="1"/>
+    <col min="12" max="12" width="9.75" style="22" customWidth="1"/>
+    <col min="13" max="13" width="9.25" style="22" customWidth="1"/>
+    <col min="14" max="14" width="10.375" style="22" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" ht="24.2" customHeight="1">
@@ -1769,52 +1786,52 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="30" customFormat="1" ht="42.2" customHeight="1">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:14" s="29" customFormat="1" ht="42.2" customHeight="1">
+      <c r="A2" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-    </row>
-    <row r="3" spans="1:14" s="30" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A3" s="28" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+    </row>
+    <row r="3" spans="1:14" s="29" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="29" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
-    </row>
-    <row r="4" spans="1:14" s="44" customFormat="1" ht="37.5" customHeight="1">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:14" s="30" customFormat="1" ht="37.5" customHeight="1">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -1841,280 +1858,281 @@
       <c r="K4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="24" t="s">
+      <c r="L4" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="24" t="s">
+      <c r="M4" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="24" t="s">
+      <c r="N4" s="23" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="21" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21" t="s">
+      <c r="H5" s="46"/>
+      <c r="I5" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="45" t="s">
+      <c r="K5" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="L5" s="45"/>
+      <c r="M5" s="45"/>
+      <c r="N5" s="45"/>
     </row>
     <row r="6" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="44">
         <v>3</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="45"/>
+      <c r="J7" s="45"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="45"/>
+      <c r="N7" s="45"/>
     </row>
     <row r="8" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="44">
         <v>4</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
     </row>
     <row r="9" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="44">
         <v>5</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="45"/>
+      <c r="I9" s="45"/>
+      <c r="J9" s="45"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="45"/>
+      <c r="N9" s="45"/>
     </row>
     <row r="10" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="44">
         <v>6</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="45"/>
+      <c r="J10" s="45"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="45"/>
+      <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A11" s="11">
+      <c r="A11" s="44">
         <v>7</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="45"/>
+      <c r="N11" s="45"/>
     </row>
     <row r="12" spans="1:14" ht="24.75" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="44">
         <v>8</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A13" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="31" t="s">
+      <c r="A13" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="31" t="s">
+      <c r="G13" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="I13" s="62"/>
-      <c r="J13" s="31" t="s">
+      <c r="I13" s="51"/>
+      <c r="J13" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="32" t="s">
+      <c r="K13" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="31" t="s">
+      <c r="L13" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
+      <c r="M13" s="45"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" ht="25.5" customHeight="1">
-      <c r="A14" s="42"/>
-      <c r="B14" s="43" t="s">
+      <c r="A14" s="53"/>
+      <c r="B14" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="37"/>
-      <c r="D14" s="38" t="s">
+      <c r="C14" s="54"/>
+      <c r="D14" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41" t="s">
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="I14" s="39" t="s">
+      <c r="I14" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="45"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="28.5" customHeight="1">
-      <c r="A15" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="35" t="s">
+      <c r="A15" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="36"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="59"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="66"/>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
+      <c r="A16" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="63"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="64"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:N2"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="H16:N16"/>
+    <mergeCell ref="B15:I15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.48" right="0.25" top="0.93" bottom="0.47244094488188981" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
